--- a/resources/GINF1/Notes_ApresRat.xlsx
+++ b/resources/GINF1/Notes_ApresRat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GINF2_2021_2022\XML\Projet_Gestion_Scolarite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GINF1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{905256EA-3955-4AFD-852C-E969A449AC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDBCAA6-0E47-4B1F-9AA3-B19D06E855DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{335A8C19-2AA3-4ABA-B58B-0EDA2A5E21F3}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -559,10 +559,10 @@
         <v>19000031</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
       </c>
       <c r="D2">
         <v>19</v>
@@ -606,10 +606,10 @@
         <v>19000032</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
       </c>
       <c r="D3">
         <v>13</v>
@@ -653,10 +653,10 @@
         <v>19000033</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
       </c>
       <c r="D4">
         <v>14</v>
@@ -700,10 +700,10 @@
         <v>19000034</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
       </c>
       <c r="D5">
         <v>16</v>
@@ -747,10 +747,10 @@
         <v>19000035</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6">
         <v>12</v>
@@ -794,10 +794,10 @@
         <v>19000036</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
       </c>
       <c r="D7">
         <v>18</v>
@@ -841,10 +841,10 @@
         <v>19000037</v>
       </c>
       <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -888,10 +888,10 @@
         <v>19000038</v>
       </c>
       <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -935,10 +935,10 @@
         <v>19000039</v>
       </c>
       <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -982,10 +982,10 @@
         <v>19000040</v>
       </c>
       <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
       </c>
       <c r="D11">
         <v>12</v>
